--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sara-\OneDrive\Desktop\Computer Vision\Projects\CV Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sara-\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9419DF6-38C3-4CCA-B530-4A823DF945F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56687204-A437-4DFD-AEF4-D6D2A003C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49D23A7E-303C-491D-9D78-2D4436B56999}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>SVC</t>
   </si>
@@ -89,10 +89,7 @@
     <t>Flood fill</t>
   </si>
   <si>
-    <t>F1 score (Covid) %</t>
-  </si>
-  <si>
-    <t>F1 score (Normal) %</t>
+    <t>F1-score</t>
   </si>
 </sst>
 </file>
@@ -144,18 +141,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -228,50 +219,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,16 +250,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
-    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7446C7-A43C-4E43-A6B3-EF2694CAEE25}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,10 +583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -645,7 +615,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -677,7 +647,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -707,557 +677,437 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>87.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>81.599999999999994</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>81.899999999999991</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>90.4</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>85</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>91.3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>74.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>93.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.751</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.92</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.91799999999999993</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.872</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.94750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16.989000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.8190000000000008</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.2770000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>209.77699999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>39.741999999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <v>32.987000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>583.10500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>90.100000000000009</v>
+      </c>
+      <c r="G7" s="3">
+        <v>87.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>92.300000000000011</v>
+      </c>
+      <c r="I7" s="3">
+        <v>92.300000000000011</v>
+      </c>
+      <c r="J7" s="3">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4">
+        <v>74.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>87</v>
+      </c>
+      <c r="I8" s="4">
+        <v>87</v>
+      </c>
+      <c r="J8" s="4">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.74249999999999994</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.8859999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
-        <v>16.989000000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8.8190000000000008</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.2770000000000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>209.77699999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>39.741999999999997</v>
-      </c>
-      <c r="I7" s="2">
-        <v>32.987000000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>583.10500000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
+      <c r="C10" s="2">
+        <v>16.469000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8.282</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>153.65299999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>26.922999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>40.488999999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>472.18599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <v>88.3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>84.3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C11" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>81.699999999999989</v>
+      </c>
+      <c r="E11" s="3">
+        <v>79</v>
+      </c>
+      <c r="F11" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>80.800000000000011</v>
+      </c>
+      <c r="J11" s="3">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>79.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>67.100000000000009</v>
+      </c>
+      <c r="E12" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F12" s="4">
+        <v>77.7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="H12" s="4">
+        <v>80.300000000000011</v>
+      </c>
+      <c r="I12" s="4">
+        <v>65.3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>82.199999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.84650000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30.102</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>19.064</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="G14" s="2">
+        <v>199.458</v>
+      </c>
+      <c r="H14" s="2">
+        <v>42.48</v>
+      </c>
+      <c r="I14" s="2">
+        <v>38.908999999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <v>474.642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="D15" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>82.699999999999989</v>
+      </c>
+      <c r="F15" s="3">
+        <v>91.100000000000009</v>
+      </c>
+      <c r="G15" s="3">
+        <v>88.8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="J15" s="3">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>82.1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>76.8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>85</v>
+      </c>
+      <c r="G16" s="4">
         <v>80.7</v>
       </c>
-      <c r="F8" s="3">
-        <v>90.100000000000009</v>
-      </c>
-      <c r="G8" s="3">
-        <v>87.1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>92.300000000000011</v>
-      </c>
-      <c r="I8" s="3">
-        <v>92.300000000000011</v>
-      </c>
-      <c r="J8" s="3">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>79</v>
-      </c>
-      <c r="D9" s="5">
-        <v>73</v>
-      </c>
-      <c r="E9" s="5">
-        <v>74.3</v>
-      </c>
-      <c r="F9" s="5">
-        <v>83.3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>77.2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>87</v>
-      </c>
-      <c r="I9" s="5">
-        <v>87</v>
-      </c>
-      <c r="J9" s="5">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4" t="s">
+      <c r="H16" s="4">
+        <v>87.8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="J16" s="4">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C17" s="8">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="F17" s="8">
         <v>0.872</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16.469000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8.282</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.5230000000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>153.65299999999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>26.922999999999998</v>
-      </c>
-      <c r="I12" s="2">
-        <v>40.488999999999997</v>
-      </c>
-      <c r="J12" s="2">
-        <v>472.18599999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>87.2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>81.699999999999989</v>
-      </c>
-      <c r="E13" s="3">
-        <v>79</v>
-      </c>
-      <c r="F13" s="3">
-        <v>86.2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>84</v>
-      </c>
-      <c r="H13" s="3">
-        <v>87.2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>80.800000000000011</v>
-      </c>
-      <c r="J13" s="3">
-        <v>89.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>79.2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>67.100000000000009</v>
-      </c>
-      <c r="E14" s="5">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F14" s="5">
-        <v>77.7</v>
-      </c>
-      <c r="G14" s="5">
-        <v>72.7</v>
-      </c>
-      <c r="H14" s="5">
-        <v>80.300000000000011</v>
-      </c>
-      <c r="I14" s="5">
-        <v>65.3</v>
-      </c>
-      <c r="J14" s="5">
-        <v>82.199999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0.76100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>30.102</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>19.064</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5.3760000000000003</v>
-      </c>
-      <c r="G17" s="2">
-        <v>199.458</v>
-      </c>
-      <c r="H17" s="2">
-        <v>42.48</v>
-      </c>
-      <c r="I17" s="2">
-        <v>38.908999999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <v>474.642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3">
-        <v>89.600000000000009</v>
-      </c>
-      <c r="D18" s="3">
-        <v>83.8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>82.699999999999989</v>
-      </c>
-      <c r="F18" s="3">
-        <v>91.100000000000009</v>
-      </c>
-      <c r="G18" s="3">
-        <v>88.8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>92.4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>83.6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5">
-        <v>82.1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>70.3</v>
-      </c>
-      <c r="E19" s="5">
-        <v>76.8</v>
-      </c>
-      <c r="F19" s="5">
-        <v>85</v>
-      </c>
-      <c r="G19" s="5">
-        <v>80.7</v>
-      </c>
-      <c r="H19" s="5">
-        <v>87.8</v>
-      </c>
-      <c r="I19" s="5">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="J19" s="5">
-        <v>87.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.94899999999999995</v>
+      <c r="G17" s="8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.89149999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
